--- a/medicine/Psychotrope/Manufacture_des_tabacs_de_Paris-Reuilly/Manufacture_des_tabacs_de_Paris-Reuilly.xlsx
+++ b/medicine/Psychotrope/Manufacture_des_tabacs_de_Paris-Reuilly/Manufacture_des_tabacs_de_Paris-Reuilly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancienne manufacture des tabacs de Paris-Reuilly est une des manufactures des tabacs françaises située 319 rue de Charenton, dans l'ancien quartier de Reuilly, dans le 12e arrondissement de Paris. Construite en 1857, spécialisée dans les cigarettes, elle est fermée en 1969[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancienne manufacture des tabacs de Paris-Reuilly est une des manufactures des tabacs françaises située 319 rue de Charenton, dans l'ancien quartier de Reuilly, dans le 12e arrondissement de Paris. Construite en 1857, spécialisée dans les cigarettes, elle est fermée en 1969.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
